--- a/_resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140"/>
+    <workbookView xWindow="2070" yWindow="0" windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="frameconfig" sheetId="2" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>zone</t>
   </si>
   <si>
-    <t>./setting/{}_{}_zone.xml</t>
-  </si>
-  <si>
     <t>bus连接关系配置表</t>
   </si>
   <si>
@@ -682,6 +679,10 @@
   </si>
   <si>
     <t>repeat=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/{}_{}_zone.xml</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1265,7 +1266,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1281,13 +1282,13 @@
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1301,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -1318,38 +1319,38 @@
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1383,25 +1384,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1534,44 +1535,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1588,16 +1589,16 @@
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1612,44 +1613,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
         <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1664,44 +1665,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
@@ -1718,16 +1719,16 @@
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="C20" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="E20" s="8">
         <v>1</v>
@@ -1744,16 +1745,16 @@
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
@@ -1770,16 +1771,16 @@
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
@@ -1796,16 +1797,16 @@
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
@@ -1822,16 +1823,16 @@
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
@@ -1848,16 +1849,16 @@
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -1874,16 +1875,16 @@
     </row>
     <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
@@ -1900,16 +1901,16 @@
     </row>
     <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="C27" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="E27" s="8">
         <v>1</v>
@@ -1926,16 +1927,16 @@
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="E28" s="8">
         <v>1</v>
@@ -1952,16 +1953,16 @@
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="E29" s="8">
         <v>1</v>
@@ -1978,16 +1979,16 @@
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="E30" s="8">
         <v>1</v>
@@ -2004,16 +2005,16 @@
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="E31" s="8">
         <v>1</v>
@@ -2030,16 +2031,16 @@
     </row>
     <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="E32" s="8">
         <v>1</v>
@@ -2056,16 +2057,16 @@
     </row>
     <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
@@ -2082,16 +2083,16 @@
     </row>
     <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="E34" s="8">
         <v>1</v>
@@ -2108,16 +2109,16 @@
     </row>
     <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="E35" s="8">
         <v>1</v>
@@ -2134,16 +2135,16 @@
     </row>
     <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="E36" s="8">
         <v>1</v>
@@ -2160,16 +2161,16 @@
     </row>
     <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="E37" s="8">
         <v>1</v>
@@ -2186,16 +2187,16 @@
     </row>
     <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="E38" s="8">
         <v>1</v>
@@ -2212,16 +2213,16 @@
     </row>
     <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="C39" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="E39" s="8">
         <v>1</v>
@@ -2238,16 +2239,16 @@
     </row>
     <row r="40" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="E40" s="8">
         <v>1</v>
@@ -2264,16 +2265,16 @@
     </row>
     <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E41" s="8">
         <v>1</v>
@@ -2290,16 +2291,16 @@
     </row>
     <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="E42" s="8">
         <v>1</v>
@@ -2316,16 +2317,16 @@
     </row>
     <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="E43" s="8">
         <v>1</v>
@@ -2342,16 +2343,16 @@
     </row>
     <row r="44" spans="1:8" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="E44" s="8">
         <v>1</v>
@@ -2368,16 +2369,16 @@
     </row>
     <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="E45" s="8">
         <v>1</v>
@@ -2394,16 +2395,16 @@
     </row>
     <row r="46" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="C46" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="E46" s="8">
         <v>1</v>
@@ -2420,16 +2421,16 @@
     </row>
     <row r="47" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="E47" s="8">
         <v>1</v>

--- a/_resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="0" windowWidth="26310" windowHeight="13140"/>
+    <workbookView xWindow="4140" yWindow="0" windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="frameconfig" sheetId="2" r:id="rId1"/>
@@ -682,7 +682,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>./config/{}_{}_zone.xml</t>
+    <r>
+      <t>./s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tting/{}_{}_zone.xml</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1266,7 +1287,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1675,7 +1696,7 @@
       <c r="C18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="11" t="s">
         <v>156</v>
       </c>
       <c r="E18" s="8">

--- a/_resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="150">
   <si>
     <t>描述说明</t>
   </si>
@@ -466,15 +466,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string-&gt;KFConfigData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>配置文件路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>channelstring-&gt;KFConfigData</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -717,6 +709,10 @@
   </si>
   <si>
     <t>模板配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string-&gt;KFConfigData</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1321,15 +1317,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="9" bestFit="1" customWidth="1"/>
@@ -1342,7 +1338,7 @@
         <v>92</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>97</v>
@@ -1351,7 +1347,7 @@
         <v>101</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1359,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -1385,19 +1381,19 @@
         <v>95</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -1421,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>102</v>
@@ -1444,13 +1440,13 @@
         <v>96</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>98</v>
@@ -1464,10 +1460,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -1487,10 +1483,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1510,10 +1506,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1533,10 +1529,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -1559,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1573,16 +1569,16 @@
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>147</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1605,7 +1601,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1628,7 +1624,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1651,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1674,7 +1670,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1697,7 +1693,7 @@
         <v>103</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1717,10 +1713,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E19" s="22">
         <v>0</v>
@@ -1743,7 +1739,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -1766,7 +1762,7 @@
         <v>75</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
@@ -1789,7 +1785,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
@@ -1812,7 +1808,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" s="8">
         <v>0</v>
@@ -1835,7 +1831,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E24" s="8">
         <v>0</v>
@@ -1858,7 +1854,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -1881,7 +1877,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26" s="8">
         <v>0</v>
@@ -1904,7 +1900,7 @@
         <v>86</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
@@ -1927,7 +1923,7 @@
         <v>87</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
@@ -1950,7 +1946,7 @@
         <v>47</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
@@ -1973,7 +1969,7 @@
         <v>49</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
@@ -1996,7 +1992,7 @@
         <v>51</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
@@ -2019,7 +2015,7 @@
         <v>94</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E32" s="8">
         <v>0</v>
@@ -2042,7 +2038,7 @@
         <v>54</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="8">
         <v>0</v>
@@ -2065,7 +2061,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E34" s="8">
         <v>0</v>
@@ -2088,7 +2084,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E35" s="8">
         <v>0</v>
@@ -2111,7 +2107,7 @@
         <v>81</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E36" s="8">
         <v>0</v>
@@ -2134,7 +2130,7 @@
         <v>60</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E37" s="8">
         <v>0</v>
@@ -2154,10 +2150,10 @@
         <v>62</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E38" s="8">
         <v>0</v>
@@ -2180,7 +2176,7 @@
         <v>64</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E39" s="8">
         <v>0</v>
@@ -2203,7 +2199,7 @@
         <v>66</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E40" s="8">
         <v>0</v>
@@ -2226,7 +2222,7 @@
         <v>68</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E41" s="8">
         <v>0</v>
@@ -2249,7 +2245,7 @@
         <v>70</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E42" s="8">
         <v>0</v>
@@ -2263,16 +2259,16 @@
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E43" s="11">
         <v>0</v>
@@ -2295,7 +2291,7 @@
         <v>74</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
@@ -2318,7 +2314,7 @@
         <v>71</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E45" s="8">
         <v>0</v>
@@ -2341,7 +2337,7 @@
         <v>78</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E46" s="8">
         <v>0</v>

--- a/_resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
   <si>
     <t>描述说明</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>route</t>
-  </si>
-  <si>
-    <t>渠道配置表</t>
   </si>
   <si>
     <t>channel</t>
@@ -712,7 +709,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>渠道配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>权重配置表</t>
+  </si>
+  <si>
+    <t>./config/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>string-&gt;KFConfigData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string-&gt;KFConfigData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemcommon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具配置表</t>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemtype</t>
+  </si>
+  <si>
+    <t>itemtype</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itembag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具背包配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型配置表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +991,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1335,19 +1390,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1361,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -1375,35 +1430,35 @@
     </row>
     <row r="3" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="G3" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1417,10 +1472,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -1434,22 +1489,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="G7" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1460,10 +1515,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -1483,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1506,10 +1561,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1529,10 +1584,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -1555,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1569,16 +1624,16 @@
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>145</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1601,7 +1656,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1624,7 +1679,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1647,7 +1702,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1670,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1690,10 +1745,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1713,10 +1768,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="22">
         <v>0</v>
@@ -1730,16 +1785,16 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="C20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -1753,16 +1808,16 @@
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
@@ -1776,16 +1831,16 @@
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="C22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
@@ -1799,16 +1854,16 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="8">
         <v>0</v>
@@ -1822,16 +1877,16 @@
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="8">
         <v>0</v>
@@ -1845,16 +1900,16 @@
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -1868,16 +1923,16 @@
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="C26" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="8">
         <v>0</v>
@@ -1891,16 +1946,16 @@
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
@@ -1914,16 +1969,16 @@
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="C28" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
@@ -1937,16 +1992,16 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="C29" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
@@ -1960,16 +2015,16 @@
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="C30" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
@@ -1983,16 +2038,16 @@
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="C31" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
@@ -2006,339 +2061,339 @@
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="B33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>1</v>
-      </c>
-      <c r="G35" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>1</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>1</v>
-      </c>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>1</v>
-      </c>
-      <c r="G40" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="E42" s="8">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>1</v>
-      </c>
-      <c r="G41" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="8" t="s">
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
-      <c r="G42" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="11">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>1</v>
-      </c>
-      <c r="G43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8">
-        <v>1</v>
-      </c>
-      <c r="G44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>1</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="E46" s="8">
         <v>0</v>
       </c>
@@ -2346,6 +2401,89 @@
         <v>1</v>
       </c>
       <c r="G46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="24">
+        <v>1</v>
+      </c>
+      <c r="G48" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="24">
+        <v>1</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="24">
+        <v>1</v>
+      </c>
+      <c r="G50" s="24">
         <v>1</v>
       </c>
     </row>
